--- a/최종스케줄.xlsx
+++ b/최종스케줄.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -397,16 +397,6 @@
           <t>영화명</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>담당자</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>지원</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -436,8 +426,6 @@
           <t>[F] 찬실이는 복도 많지</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -463,8 +451,6 @@
           <t>울프 콜</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -490,8 +476,6 @@
           <t>주디</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -517,8 +501,6 @@
           <t>1917</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -544,8 +526,6 @@
           <t>작은 아씨들</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -571,8 +551,6 @@
           <t>페임</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -602,8 +580,6 @@
           <t>다크 워터스</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -629,8 +605,6 @@
           <t>라라랜드</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -656,8 +630,6 @@
           <t>인비저블맨</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -683,8 +655,6 @@
           <t>[F] 용길이네 곱창집</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -710,8 +680,6 @@
           <t>첫키스만 50번째</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -737,8 +705,6 @@
           <t>온다</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -751,7 +717,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>10:06</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -768,8 +734,6 @@
           <t>[F] 찬실이는 복도 많지</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -795,8 +759,6 @@
           <t>[F] 스킨</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -822,8 +784,6 @@
           <t>울프 콜</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -849,8 +809,6 @@
           <t>주디</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -876,8 +834,6 @@
           <t>울프 콜</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -903,8 +859,6 @@
           <t>1917</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -934,8 +888,6 @@
           <t>주디</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -961,8 +913,6 @@
           <t>페임</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -988,8 +938,6 @@
           <t>1917</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1015,8 +963,6 @@
           <t>작은 아씨들</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1042,8 +988,6 @@
           <t>다크 워터스</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1069,8 +1013,6 @@
           <t>페임</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1096,8 +1038,6 @@
           <t>라라랜드</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1123,8 +1063,6 @@
           <t>레토</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1150,8 +1088,6 @@
           <t>인비저블맨</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1177,8 +1113,6 @@
           <t>첫키스만 50번째</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1204,8 +1138,6 @@
           <t>다크 워터스</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1231,8 +1163,6 @@
           <t>[F] 용길이네 곱창집</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1258,8 +1188,6 @@
           <t>라라랜드</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1285,8 +1213,6 @@
           <t>시원찮은 그녀를 위한 육성방법 피날레</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1312,8 +1238,6 @@
           <t>스타 이즈 본</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1343,8 +1267,6 @@
           <t>[F] 비행</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1370,8 +1292,6 @@
           <t>온다</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1397,8 +1317,6 @@
           <t>온다</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1424,8 +1342,6 @@
           <t>[F] 스킨</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1451,8 +1367,6 @@
           <t>울프 콜</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1478,8 +1392,6 @@
           <t>[F] 이장</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1509,8 +1421,6 @@
           <t>그녀</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1536,8 +1446,6 @@
           <t>주디</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1563,8 +1471,6 @@
           <t>1917</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1590,8 +1496,6 @@
           <t>주디</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1617,8 +1521,6 @@
           <t>1917</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1644,8 +1546,6 @@
           <t>페임</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1671,8 +1571,6 @@
           <t>[F] 비행</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1698,8 +1596,6 @@
           <t>레토</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1725,8 +1621,6 @@
           <t>시원찮은 그녀를 위한 육성방법 피날레</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1756,8 +1650,6 @@
           <t>페임</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1783,8 +1675,6 @@
           <t>다크 워터스</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1810,8 +1700,6 @@
           <t>[F] 샤인</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1837,8 +1725,6 @@
           <t>라라랜드</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1864,8 +1750,6 @@
           <t>작은 아씨들</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1891,8 +1775,6 @@
           <t>사랑하고 있습니까</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1918,8 +1800,6 @@
           <t>다크 워터스</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1945,8 +1825,6 @@
           <t>스타 이즈 본</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1972,8 +1850,6 @@
           <t>라라랜드</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1999,8 +1875,6 @@
           <t>인비저블맨</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2026,8 +1900,6 @@
           <t>[F] 이장</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2057,8 +1929,6 @@
           <t>[F] 페인티드 버드</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2084,8 +1954,6 @@
           <t>온다</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2111,8 +1979,6 @@
           <t>바이올렛 에버가든 – 영원과 자동 수기 인형 -</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2138,8 +2004,6 @@
           <t>그녀</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2165,8 +2029,6 @@
           <t>주디</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2192,8 +2054,6 @@
           <t>그랜드 부다페스트 호텔</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2219,8 +2079,6 @@
           <t>1917</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2250,8 +2108,6 @@
           <t>주디</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2277,8 +2133,6 @@
           <t>[F] 샤인</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2304,8 +2158,6 @@
           <t>1917</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2331,8 +2183,6 @@
           <t>페임</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2358,8 +2208,6 @@
           <t>[F] 용길이네 곱창집</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2385,8 +2233,6 @@
           <t>사랑하고 있습니까</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2412,8 +2258,6 @@
           <t>페임</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2439,8 +2283,6 @@
           <t>첫키스만 50번째</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2466,8 +2308,6 @@
           <t>다크 워터스</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2493,8 +2333,6 @@
           <t>작은 아씨들</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2520,8 +2358,6 @@
           <t>라라랜드</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2547,8 +2383,6 @@
           <t>인비저블맨</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2574,8 +2408,6 @@
           <t>레토</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2605,8 +2437,6 @@
           <t>다크 워터스</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2632,8 +2462,6 @@
           <t>바이올렛 에버가든 – 영원과 자동 수기 인형 -</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2659,8 +2487,6 @@
           <t>라라랜드</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2686,8 +2512,6 @@
           <t>인비저블맨</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2713,8 +2537,6 @@
           <t>바이올렛 에버가든 – 영원과 자동 수기 인형 -</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2740,8 +2562,6 @@
           <t>그랜드 부다페스트 호텔</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2767,8 +2587,6 @@
           <t>더 울프 오브 월스트리트</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2798,8 +2616,6 @@
           <t>[F] 페인티드 버드</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2825,8 +2641,6 @@
           <t>주디</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2852,8 +2666,6 @@
           <t>1917</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2879,8 +2691,6 @@
           <t>[F] 찬실이는 복도 많지</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2906,8 +2716,6 @@
           <t>주디</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2933,8 +2741,6 @@
           <t>1917</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2960,8 +2766,6 @@
           <t>첫키스만 50번째</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2987,8 +2791,6 @@
           <t>페임</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3014,8 +2816,6 @@
           <t>[F] 용길이네 곱창집</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3045,8 +2845,6 @@
           <t>[F] 산티아고의 흰 지팡이</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3072,8 +2870,6 @@
           <t>페임</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3099,8 +2895,6 @@
           <t>바이올렛 에버가든 – 영원과 자동 수기 인형 -</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3126,8 +2920,6 @@
           <t>레토</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3153,8 +2945,6 @@
           <t>[굿즈패키지] 패왕별희 디 오리지널</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3180,8 +2970,6 @@
           <t>다크 워터스</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3207,8 +2995,6 @@
           <t>온다</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3234,8 +3020,6 @@
           <t>인비저블맨</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3261,8 +3045,6 @@
           <t>라라랜드</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3288,8 +3070,6 @@
           <t>작은 아씨들</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3315,8 +3095,6 @@
           <t>다크 워터스</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3342,8 +3120,6 @@
           <t>라라랜드</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3369,8 +3145,6 @@
           <t>스타 이즈 본</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3383,7 +3157,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>20:16</t>
+          <t>20:06</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3400,8 +3174,6 @@
           <t>[F] 찬실이는 복도 많지</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3427,8 +3199,6 @@
           <t>[F] 이장</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3454,8 +3224,6 @@
           <t>주디</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3481,8 +3249,6 @@
           <t>1917</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3512,8 +3278,6 @@
           <t>주디</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3539,8 +3303,6 @@
           <t>[F] 산티아고의 흰 지팡이</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3566,8 +3328,6 @@
           <t>더 울프 오브 월스트리트</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3593,8 +3353,6 @@
           <t>1917</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3620,8 +3378,6 @@
           <t>[F] 샤인</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3647,8 +3403,6 @@
           <t>라라랜드</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3674,8 +3428,6 @@
           <t>페임</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3701,8 +3453,6 @@
           <t>페임</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3728,8 +3478,6 @@
           <t>온다</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3759,8 +3507,6 @@
           <t>다크 워터스</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3786,8 +3532,6 @@
           <t>작은 아씨들</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3813,8 +3557,6 @@
           <t>라라랜드</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3840,8 +3582,6 @@
           <t>세인트 아가타</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3867,8 +3607,6 @@
           <t>[F] 이장</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3894,8 +3632,6 @@
           <t>스타 이즈 본</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3921,8 +3657,6 @@
           <t>정직한 후보</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3948,8 +3682,6 @@
           <t>다크 워터스</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3975,8 +3707,6 @@
           <t>[F] 스킨</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4002,8 +3732,6 @@
           <t>라라랜드</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4029,8 +3757,6 @@
           <t>[굿즈패키지] 패왕별희 디 오리지널</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4056,8 +3782,6 @@
           <t>인비저블맨</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4083,8 +3807,6 @@
           <t>사랑하고 있습니까</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4114,8 +3836,6 @@
           <t>주디</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4141,8 +3861,6 @@
           <t>[F] 샤인</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4168,8 +3886,6 @@
           <t>1917</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4195,8 +3911,6 @@
           <t>라라랜드</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -4226,8 +3940,6 @@
           <t>페임</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -4253,8 +3965,6 @@
           <t>세인트 아가타</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -4280,8 +3990,6 @@
           <t>정직한 후보</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4307,8 +4015,6 @@
           <t>다크 워터스</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4334,8 +4040,6 @@
           <t>사랑하고 있습니까</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4361,8 +4065,6 @@
           <t>[F] 스킨</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4388,8 +4090,6 @@
           <t>인비저블맨</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4415,10 +4115,8 @@
           <t>라라랜드</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>